--- a/download/games/ETS2_mymods.xlsx
+++ b/download/games/ETS2_mymods.xlsx
@@ -1,97 +1,71 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\王浩然\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC878815-163F-4A0C-AB13-3A91B7EFDAC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C1EED49A-473B-4CC8-80BF-62D9934E278A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="订阅的创意工坊" sheetId="1" r:id="rId1"/>
+    <sheet name="任务评价判定" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$3:$F$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">订阅的创意工坊!$C$3:$F$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">订阅的创意工坊!$C$3:$F$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="99" count="99">
   <si>
     <t>模组名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>创意工坊链接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Optical-HUD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>车内组件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>抬头显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Ownable Renault E-Tech T (1.50+)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>外部添加车辆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>原版快速任务自带的雷诺电卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>600kW Recharge</t>
   </si>
   <si>
     <t>车辆能源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Ownable Scania S BEV and DLC Support</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>非原版游戏卡车但与原版雷诺电卡相似</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>明日方舟阿米娅&amp;逻各斯语音导航</t>
@@ -110,7 +84,6 @@
   </si>
   <si>
     <t>挂车涂装</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Lycoris Recoil</t>
@@ -132,7 +105,6 @@
   </si>
   <si>
     <t>交通修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Sound Fixes Pack v25.01 - ETS2</t>
@@ -145,71 +117,54 @@
   </si>
   <si>
     <t>导航音源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>车外组件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>刷等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>刷等级货币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>车辆涂装</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>车辆音源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>物理组件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>标题所示的导航语音包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>【Lycoris Recoil】锦木千束＆井之上泷奈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>更好的升级你的等级和获得跟多的金钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>更贴近现实的物理效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>动态AI车辆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>更贴近现实的路灯效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>更多的警示灯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>修改卡车限速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>更真实的环境音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>600kW超冲站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Skoda Japanese Police Skins</t>
@@ -246,7 +201,6 @@
   </si>
   <si>
     <t>斯柯达轿车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -257,18 +211,15 @@
     <r>
       <rPr>
         <b/>
+        <charset val="134"/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>东京警视厅
 大阪府警
 朽木県警察</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -278,16 +229,13 @@
     <r>
       <rPr>
         <b/>
+        <charset val="134"/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>注意适用于MAN FGX Euro 5、Benz Actros New、Volvo FH12;SCS 箱式和油箱拖车</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -297,17 +245,14 @@
     <r>
       <rPr>
         <b/>
+        <charset val="134"/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>注意只用于斯堪尼亚S highline 6X2long或6X4long底盘
 货柜只适用于标准长货柜</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -317,17 +262,14 @@
     <r>
       <rPr>
         <b/>
+        <charset val="134"/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>注意只用于斯堪尼亚SCANIA S 2016
 SCANIA R 2016</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -337,12 +279,10 @@
     <r>
       <rPr>
         <b/>
+        <charset val="134"/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>涂装类型包括：
 公安警察
@@ -352,7 +292,6 @@
 人民法院
 司法部门</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -362,27 +301,22 @@
     <r>
       <rPr>
         <b/>
+        <charset val="134"/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>目前所支持的卡车和挂车：
 Volvo fh6
 Scania R
 卡车支持所有型号的驾驶室，底盘和配件</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>拖车涂装</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>中央广播电视总台的4K/8K转播车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -393,24 +327,20 @@
     <r>
       <rPr>
         <b/>
+        <charset val="134"/>
         <sz val="11"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>绿色：30 秒</t>
     </r>
     <r>
       <rPr>
         <b/>
+        <charset val="134"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -418,24 +348,20 @@
     <r>
       <rPr>
         <b/>
+        <charset val="134"/>
         <sz val="11"/>
         <color rgb="FFFFFF00"/>
         <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>黄色：3 秒</t>
     </r>
     <r>
       <rPr>
         <b/>
+        <charset val="134"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -443,116 +369,156 @@
     <r>
       <rPr>
         <b/>
+        <charset val="134"/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>红色：40 秒</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>替换原版交通灯为LED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>流媒体后视镜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>更多的HUD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>UI修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>修改运转中的路政中心的UI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>中国邮政拖车涂装适用于ETS2的原版拖车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务评级</t>
+  </si>
+  <si>
+    <t>打成条件</t>
+  </si>
+  <si>
+    <t>完美</t>
+  </si>
+  <si>
+    <t>干得不错</t>
+  </si>
+  <si>
+    <t>姗姗来迟</t>
+  </si>
+  <si>
+    <t>差强人意</t>
+  </si>
+  <si>
+    <t>合情合理</t>
+  </si>
+  <si>
+    <t>尚可容忍</t>
+  </si>
+  <si>
+    <t>残破不堪</t>
+  </si>
+  <si>
+    <t>毛手毛脚</t>
+  </si>
+  <si>
+    <t>无货损及迟到</t>
+  </si>
+  <si>
+    <t>货损小于百分之二的</t>
+  </si>
+  <si>
+    <t>迟到</t>
+  </si>
+  <si>
+    <t>货损达百分之二未到百分之5的</t>
+  </si>
+  <si>
+    <t>货损达百分之二未到百分之五的</t>
+  </si>
+  <si>
+    <t>货损达百分之五未到百分之十的</t>
+  </si>
+  <si>
+    <t>货损达百分之十点一未到百分之十九点九的</t>
+  </si>
+  <si>
+    <t>货损达百分之二十未到百分之四十的</t>
+  </si>
+  <si>
+    <t>货损达百分之四十极其以上的</t>
+  </si>
+  <si>
+    <t>货损小于2%的</t>
+  </si>
+  <si>
+    <t>货损达2%未到5%的</t>
+  </si>
+  <si>
+    <t>货损达5%未到10%的</t>
+  </si>
+  <si>
+    <t>货损达10.1%未到19.9%的</t>
+  </si>
+  <si>
+    <t>货损达20%未到40%的</t>
+  </si>
+  <si>
+    <t>货损达40%极其以上的</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="7">
     <font>
+      <name val="等线"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
     </font>
     <font>
+      <name val="等线"/>
+      <b/>
+      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <b/>
+      <charset val="134"/>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <color rgb="FF0563C1"/>
     </font>
     <font>
+      <name val="黑体"/>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <sz val="14"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <sz val="14"/>
     </font>
     <font>
-      <b/>
+      <name val="等线"/>
+      <charset val="134"/>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFF00"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <color rgb="FF0563C1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -564,13 +530,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
+        <fgColor rgb="FF000000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.499984740745262"/>
+        <fgColor rgb="FF808080"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,6 +547,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -609,70 +584,63 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="超链接" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16" count="0"/>
 </styleSheet>
 </file>
 
@@ -963,31 +931,26 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F063E30B-2EE3-4DA6-8AC6-FE3B9DAACFCB}">
-  <dimension ref="A1:H40"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B15" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="C18" zoomScale="50">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="10"/>
   <cols>
-    <col min="3" max="3" width="56.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.375" customWidth="1"/>
+    <col min="3" max="3" customWidth="1" bestFit="1" width="56.75" style="0"/>
+    <col min="4" max="4" customWidth="1" bestFit="1" width="13.0" style="0"/>
+    <col min="5" max="5" customWidth="1" bestFit="1" width="35.875" style="0"/>
+    <col min="6" max="6" customWidth="1" width="51.375" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="8:8">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -997,7 +960,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="8:8">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
@@ -1007,34 +970,34 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="8:8">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="8:8">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="5" t="s">
@@ -1043,16 +1006,16 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="8:8">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="5" t="s">
@@ -1061,16 +1024,16 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="8:8">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="4" t="s">
         <v>46</v>
       </c>
       <c r="F6" s="5" t="s">
@@ -1079,16 +1042,16 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="8:8">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="5" t="s">
@@ -1097,16 +1060,16 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="8:8">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="4" t="s">
         <v>37</v>
       </c>
       <c r="F8" s="5" t="s">
@@ -1115,16 +1078,16 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="8:8">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="4" t="s">
         <v>37</v>
       </c>
       <c r="F9" s="5" t="s">
@@ -1133,16 +1096,16 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="8:8">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="6" t="s">
         <v>39</v>
       </c>
       <c r="F10" s="5" t="s">
@@ -1151,32 +1114,32 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="8:8">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="8"/>
+      <c r="E11" s="6"/>
       <c r="F11" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="12" spans="8:8" ht="57.0">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="4" t="s">
         <v>60</v>
       </c>
       <c r="F12" s="5" t="s">
@@ -1185,16 +1148,16 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="8:8" ht="71.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="4" t="s">
         <v>61</v>
       </c>
       <c r="F13" s="5" t="s">
@@ -1203,16 +1166,16 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="14" spans="8:8" ht="57.0">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="4" t="s">
         <v>62</v>
       </c>
       <c r="F14" s="5" t="s">
@@ -1221,16 +1184,16 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="8:8">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="4" t="s">
         <v>37</v>
       </c>
       <c r="F15" s="5" t="s">
@@ -1239,16 +1202,16 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="8:8">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F16" s="5" t="s">
@@ -1257,16 +1220,16 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="8:8">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="4" t="s">
         <v>43</v>
       </c>
       <c r="F17" s="5" t="s">
@@ -1275,16 +1238,16 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="8:8" ht="28.5">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="4" t="s">
         <v>37</v>
       </c>
       <c r="F18" s="5" t="s">
@@ -1293,16 +1256,16 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="8:8">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F19" s="5" t="s">
@@ -1311,16 +1274,16 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="8:8">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="7" t="s">
         <v>45</v>
       </c>
       <c r="F20" s="5" t="s">
@@ -1329,16 +1292,16 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="8:8">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="4" t="s">
         <v>41</v>
       </c>
       <c r="F21" s="5" t="s">
@@ -1347,16 +1310,16 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="8:8">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="4" t="s">
         <v>40</v>
       </c>
       <c r="F22" s="5" t="s">
@@ -1365,16 +1328,16 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="8:8" ht="71.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="4" t="s">
         <v>59</v>
       </c>
       <c r="F23" s="5" t="s">
@@ -1383,16 +1346,16 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" ht="114" x14ac:dyDescent="0.2">
+    <row r="24" spans="8:8" ht="114.0">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F24" s="5" t="s">
@@ -1401,16 +1364,16 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="8:8">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F25" s="5" t="s">
@@ -1419,16 +1382,16 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="8:8">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="4" t="s">
         <v>70</v>
       </c>
       <c r="F26" s="5" t="s">
@@ -1437,16 +1400,16 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="8:8" ht="71.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="4" t="s">
         <v>67</v>
       </c>
       <c r="F27" s="5" t="s">
@@ -1455,16 +1418,16 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="8:8">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="4" t="s">
         <v>68</v>
       </c>
       <c r="F28" s="5" t="s">
@@ -1473,16 +1436,16 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="8:8">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="4" t="s">
         <v>69</v>
       </c>
       <c r="F29" s="5" t="s">
@@ -1491,16 +1454,16 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="8:8">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="4" t="s">
         <v>72</v>
       </c>
       <c r="F30" s="5" t="s">
@@ -1509,16 +1472,16 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="8:8">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="4" t="s">
         <v>73</v>
       </c>
       <c r="F31" s="5" t="s">
@@ -1527,16 +1490,16 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="8:8" ht="99.75">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="4" t="s">
         <v>64</v>
       </c>
       <c r="F32" s="5" t="s">
@@ -1545,16 +1508,16 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="8:8">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="4" t="s">
         <v>66</v>
       </c>
       <c r="F33" s="5" t="s">
@@ -1563,7 +1526,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="8:8">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1573,7 +1536,7 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="8:8">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1583,70 +1546,162 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="8:8">
       <c r="A36" s="1"/>
-      <c r="B36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+    </row>
+    <row r="37" spans="8:8">
       <c r="A37" s="1"/>
-      <c r="B37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+    </row>
+    <row r="38" spans="8:8">
       <c r="A38" s="1"/>
-      <c r="B38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+    </row>
+    <row r="39" spans="8:8">
       <c r="A39" s="1"/>
-      <c r="B39" s="3"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B39" s="9"/>
+    </row>
+    <row r="40" spans="8:8">
       <c r="A40" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="C3:F3" xr:uid="{F063E30B-2EE3-4DA6-8AC6-FE3B9DAACFCB}"/>
+  <autoFilter ref="C3:F3">
+    <filterColumn colId="0" showButton="1"/>
+  </autoFilter>
   <mergeCells count="2">
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="C2:F2"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F4" r:id="rId1" display="https://steamcommunity.com/sharedfiles/filedetails/?id=3310485234" xr:uid="{F195D69B-1834-4C2F-AB1B-730AE36FE885}"/>
-    <hyperlink ref="F22" r:id="rId2" display="https://steamcommunity.com/sharedfiles/filedetails/?id=713338424" xr:uid="{17EC1627-1353-4797-9B0E-613D058FA360}"/>
-    <hyperlink ref="F21" r:id="rId3" display="https://steamcommunity.com/sharedfiles/filedetails/?id=1681494086" xr:uid="{CD518026-D2BC-407C-9F83-D4B95A8EA953}"/>
-    <hyperlink ref="F20" r:id="rId4" display="https://steamcommunity.com/sharedfiles/filedetails/?id=648591060" xr:uid="{88C48BA7-C977-4EA2-BAB0-224C2CE6F9A0}"/>
-    <hyperlink ref="F19" r:id="rId5" display="https://steamcommunity.com/sharedfiles/filedetails/?id=2042311982" xr:uid="{2D57D654-7DD7-4A06-9DEF-C56A16FE3AE4}"/>
-    <hyperlink ref="F18" r:id="rId6" display="https://steamcommunity.com/sharedfiles/filedetails/?id=2730100210" xr:uid="{4177B420-4E12-4106-99E3-3BD5223E59F0}"/>
-    <hyperlink ref="F17" r:id="rId7" display="https://steamcommunity.com/sharedfiles/filedetails/?id=2739658912" xr:uid="{832F0E57-D2C0-46BD-8BCC-405DDBF9FC60}"/>
-    <hyperlink ref="F16" r:id="rId8" display="https://steamcommunity.com/sharedfiles/filedetails/?id=2632159897" xr:uid="{5FBB2A3D-622D-4475-A590-648B0DBDA047}"/>
-    <hyperlink ref="F15" r:id="rId9" display="https://steamcommunity.com/sharedfiles/filedetails/?id=3015224148" xr:uid="{18EBBCDD-588E-4316-9FEF-2A2E803DF7A6}"/>
-    <hyperlink ref="F14" r:id="rId10" display="https://steamcommunity.com/sharedfiles/filedetails/?id=2840805439" xr:uid="{A4ABF7E5-6E6F-44C6-B655-B8542E8977E0}"/>
-    <hyperlink ref="F13" r:id="rId11" display="https://steamcommunity.com/sharedfiles/filedetails/?id=2848377522" xr:uid="{E615AC2E-8BB9-4334-A4C7-95C0E26A2D49}"/>
-    <hyperlink ref="F12" r:id="rId12" display="https://steamcommunity.com/sharedfiles/filedetails/?id=3007960885" xr:uid="{3DDC0D4A-25F3-4FF3-937A-735B71A7C401}"/>
-    <hyperlink ref="F11" r:id="rId13" display="https://steamcommunity.com/sharedfiles/filedetails/?id=3341046158" xr:uid="{AA9B9113-818D-4E31-BFDC-D44550B524CB}"/>
-    <hyperlink ref="F10" r:id="rId14" display="https://steamcommunity.com/sharedfiles/filedetails/?id=3133516475" xr:uid="{3B56268A-113B-4635-B62E-721CDDC7BBB4}"/>
-    <hyperlink ref="F9" r:id="rId15" display="https://steamcommunity.com/sharedfiles/filedetails/?id=3290438818" xr:uid="{ECBBF477-2EC9-415A-AC33-60305E421FCD}"/>
-    <hyperlink ref="F8" r:id="rId16" display="https://steamcommunity.com/sharedfiles/filedetails/?id=3163137896" xr:uid="{EAA041FE-8D18-4703-B727-26B1FF1AB2CD}"/>
-    <hyperlink ref="F7" r:id="rId17" display="https://steamcommunity.com/sharedfiles/filedetails/?id=3280350843" xr:uid="{1815DC9E-C70F-4E92-9E1D-A5B5DA97E1DC}"/>
-    <hyperlink ref="F6" r:id="rId18" display="https://steamcommunity.com/sharedfiles/filedetails/?id=3280404411" xr:uid="{B009D536-7491-4986-8CE5-092555361A8B}"/>
-    <hyperlink ref="F5" r:id="rId19" display="https://steamcommunity.com/sharedfiles/filedetails/?id=3257649083" xr:uid="{A5917516-4957-47EC-9293-1AFBEDFD0569}"/>
-    <hyperlink ref="F23" r:id="rId20" display="https://steamcommunity.com/sharedfiles/filedetails/?id=2957559759" xr:uid="{2B2FC31B-D476-4DC9-82E3-C3028303357C}"/>
-    <hyperlink ref="F24" r:id="rId21" display="https://steamcommunity.com/sharedfiles/filedetails/?id=2841231604" xr:uid="{5C220118-8B27-46BA-B040-1458602D7011}"/>
-    <hyperlink ref="F25" r:id="rId22" display="https://steamcommunity.com/sharedfiles/filedetails/?id=1409820600" xr:uid="{CE3BD64E-C2DC-4C48-99B7-BB993420CD25}"/>
-    <hyperlink ref="F26" r:id="rId23" display="https://steamcommunity.com/sharedfiles/filedetails/?id=3257478002" xr:uid="{9C78D007-8DBC-4449-8FBC-74E2D5BE235D}"/>
-    <hyperlink ref="F27" r:id="rId24" display="https://steamcommunity.com/sharedfiles/filedetails/?id=3047125015" xr:uid="{D4078383-3921-4A84-8924-04485F5E43F3}"/>
-    <hyperlink ref="F28" r:id="rId25" display="https://steamcommunity.com/sharedfiles/filedetails/?id=3047126149" xr:uid="{C9C657A6-0870-4DAC-A0D6-76886B07809D}"/>
-    <hyperlink ref="F29" r:id="rId26" display="https://steamcommunity.com/sharedfiles/filedetails/?id=3168654522" xr:uid="{DC37A419-8CE6-4C14-A954-2D2FE834B21C}"/>
-    <hyperlink ref="F30" r:id="rId27" display="https://steamcommunity.com/sharedfiles/filedetails/?id=718966063" xr:uid="{6AECDB2D-1B9C-439F-9C6F-3570DFC61B7A}"/>
-    <hyperlink ref="F31" r:id="rId28" display="https://steamcommunity.com/sharedfiles/filedetails/?id=2176200857" xr:uid="{F01A4DE4-FD34-49CD-9C86-F88C040E92A2}"/>
-    <hyperlink ref="F32" r:id="rId29" display="https://steamcommunity.com/sharedfiles/filedetails/?id=3389239428" xr:uid="{17B21DC1-AC92-48F8-B6AF-602D65784E80}"/>
-    <hyperlink ref="F33" r:id="rId30" display="https://steamcommunity.com/sharedfiles/filedetails/?id=2850260369" xr:uid="{BF44CBCE-184C-4393-9DC4-364E989AB127}"/>
+    <hyperlink ref="F4" r:id="rId1"/>
+    <hyperlink ref="F22" r:id="rId2"/>
+    <hyperlink ref="F21" r:id="rId3"/>
+    <hyperlink ref="F20" r:id="rId4"/>
+    <hyperlink ref="F19" r:id="rId5"/>
+    <hyperlink ref="F18" r:id="rId6"/>
+    <hyperlink ref="F17" r:id="rId7"/>
+    <hyperlink ref="F16" r:id="rId8"/>
+    <hyperlink ref="F15" r:id="rId9"/>
+    <hyperlink ref="F14" r:id="rId10"/>
+    <hyperlink ref="F13" r:id="rId11"/>
+    <hyperlink ref="F12" r:id="rId12"/>
+    <hyperlink ref="F11" r:id="rId13"/>
+    <hyperlink ref="F10" r:id="rId14"/>
+    <hyperlink ref="F9" r:id="rId15"/>
+    <hyperlink ref="F8" r:id="rId16"/>
+    <hyperlink ref="F7" r:id="rId17"/>
+    <hyperlink ref="F6" r:id="rId18"/>
+    <hyperlink ref="F5" r:id="rId19"/>
+    <hyperlink ref="F23" r:id="rId20"/>
+    <hyperlink ref="F24" r:id="rId21"/>
+    <hyperlink ref="F25" r:id="rId22"/>
+    <hyperlink ref="F26" r:id="rId23"/>
+    <hyperlink ref="F27" r:id="rId24"/>
+    <hyperlink ref="F28" r:id="rId25"/>
+    <hyperlink ref="F29" r:id="rId26"/>
+    <hyperlink ref="F30" r:id="rId27"/>
+    <hyperlink ref="F31" r:id="rId28"/>
+    <hyperlink ref="F32" r:id="rId29"/>
+    <hyperlink ref="F33" r:id="rId30"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="79">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.25" defaultColWidth="10"/>
+  <cols>
+    <col min="2" max="2" customWidth="1" width="19.09375" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="8:8" ht="19.95">
+      <c r="A1" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="11"/>
+    </row>
+    <row r="2" spans="8:8" ht="18.55">
+      <c r="A2" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="8:8" ht="18.55">
+      <c r="A3" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="8:8" ht="18.55">
+      <c r="A4" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="8:8" ht="18.55">
+      <c r="A5" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="8:8" ht="37.1">
+      <c r="A6" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="8:8" ht="37.1">
+      <c r="A7" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="8:8" ht="37.1">
+      <c r="A8" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="8:8" ht="37.1">
+      <c r="A9" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/download/games/ETS2_mymods.xlsx
+++ b/download/games/ETS2_mymods.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\王浩然\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72B113C-4B76-42F7-9650-743E81AC5C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="订阅的创意工坊" sheetId="1" r:id="rId1"/>
-    <sheet name="任务评价判定" sheetId="2" r:id="rId2"/>
+    <sheet name="游戏特性" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">订阅的创意工坊!$C$3:$F$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">订阅的创意工坊!$C$3:$F$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -23,8 +28,35 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>王浩然</author>
+  </authors>
+  <commentList>
+    <comment ref="C12" authorId="0" shapeId="0" xr:uid="{ED0753A4-3D6F-4913-B880-78B565B59993}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>单位如下：
+XmXs 多少分钟多秒
+直接数字的请当作分钟</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="99" count="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="115">
   <si>
     <t>模组名称</t>
   </si>
@@ -211,10 +243,10 @@
     <r>
       <rPr>
         <b/>
-        <charset val="134"/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
+        <charset val="134"/>
       </rPr>
       <t>东京警视厅
 大阪府警
@@ -229,10 +261,10 @@
     <r>
       <rPr>
         <b/>
-        <charset val="134"/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
+        <charset val="134"/>
       </rPr>
       <t>注意适用于MAN FGX Euro 5、Benz Actros New、Volvo FH12;SCS 箱式和油箱拖车</t>
     </r>
@@ -245,10 +277,10 @@
     <r>
       <rPr>
         <b/>
-        <charset val="134"/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
+        <charset val="134"/>
       </rPr>
       <t>注意只用于斯堪尼亚S highline 6X2long或6X4long底盘
 货柜只适用于标准长货柜</t>
@@ -262,10 +294,10 @@
     <r>
       <rPr>
         <b/>
-        <charset val="134"/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
+        <charset val="134"/>
       </rPr>
       <t>注意只用于斯堪尼亚SCANIA S 2016
 SCANIA R 2016</t>
@@ -279,10 +311,10 @@
     <r>
       <rPr>
         <b/>
-        <charset val="134"/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
+        <charset val="134"/>
       </rPr>
       <t>涂装类型包括：
 公安警察
@@ -301,10 +333,10 @@
     <r>
       <rPr>
         <b/>
-        <charset val="134"/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
+        <charset val="134"/>
       </rPr>
       <t>目前所支持的卡车和挂车：
 Volvo fh6
@@ -327,20 +359,20 @@
     <r>
       <rPr>
         <b/>
-        <charset val="134"/>
         <sz val="11"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
+        <charset val="134"/>
       </rPr>
       <t>绿色：30 秒</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <charset val="134"/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -348,20 +380,20 @@
     <r>
       <rPr>
         <b/>
-        <charset val="134"/>
         <sz val="11"/>
         <color rgb="FFFFFF00"/>
         <rFont val="等线"/>
+        <charset val="134"/>
       </rPr>
       <t>黄色：3 秒</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <charset val="134"/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -369,10 +401,10 @@
     <r>
       <rPr>
         <b/>
-        <charset val="134"/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
+        <charset val="134"/>
       </rPr>
       <t>红色：40 秒</t>
     </r>
@@ -429,30 +461,9 @@
     <t>无货损及迟到</t>
   </si>
   <si>
-    <t>货损小于百分之二的</t>
-  </si>
-  <si>
     <t>迟到</t>
   </si>
   <si>
-    <t>货损达百分之二未到百分之5的</t>
-  </si>
-  <si>
-    <t>货损达百分之二未到百分之五的</t>
-  </si>
-  <si>
-    <t>货损达百分之五未到百分之十的</t>
-  </si>
-  <si>
-    <t>货损达百分之十点一未到百分之十九点九的</t>
-  </si>
-  <si>
-    <t>货损达百分之二十未到百分之四十的</t>
-  </si>
-  <si>
-    <t>货损达百分之四十极其以上的</t>
-  </si>
-  <si>
     <t>货损小于2%的</t>
   </si>
   <si>
@@ -469,59 +480,209 @@
   </si>
   <si>
     <t>货损达40%极其以上的</t>
+  </si>
+  <si>
+    <t>DBus Vehicles Shared assets</t>
+  </si>
+  <si>
+    <t>DBus Vehicles Shared assets</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>前置组件</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bus车辆模组的一个前置组件</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iveco Evadys Line 13m</t>
+  </si>
+  <si>
+    <t>Iveco Evadys Line 日照城乡公交涂装 Rizhao Urban&amp;Rural Intercity Bus Skin</t>
+  </si>
+  <si>
+    <t>外部添加车辆</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>【Alya Sometimes Hides Her Feelings in Russian】Alisa Mikhailovna Kujou Itasha Truck</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CMG中央广播电视台转播车</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iveco Evadys Line 13m</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iveco Evadys Line 日照城乡公交涂装 Rizhao Urban&amp;Rural Intercity Bus Skin</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆涂装</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东日照公交公司巴士涂装</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>依维柯的一款13米的巴士</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>地区</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧洲大陆</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>英国</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>所以城市</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏距离
+（单位：千米）</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>现实距离
+（单位：千米）</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏时间
+单位：小时</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>现实时间
+（单位请看批注）</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>3m9s</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <name val="等线"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="等线"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
     </font>
     <font>
-      <name val="等线"/>
       <b/>
-      <charset val="134"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <b/>
-      <charset val="134"/>
       <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
+      <name val="等线"/>
+      <charset val="134"/>
     </font>
     <font>
-      <name val="黑体"/>
       <b/>
       <sz val="14"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
+      <sz val="14"/>
       <name val="等线"/>
-      <sz val="14"/>
+      <charset val="134"/>
     </font>
     <font>
-      <name val="等线"/>
-      <charset val="134"/>
       <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -530,13 +691,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,56 +746,67 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="top"/>
-      <protection locked="0" hidden="0"/>
+      <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1"/>
+    <cellStyle name="超链接" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16" count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -931,777 +1097,900 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="C18" zoomScale="50">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" customWidth="1" bestFit="1" width="56.75" style="0"/>
-    <col min="4" max="4" customWidth="1" bestFit="1" width="13.0" style="0"/>
-    <col min="5" max="5" customWidth="1" bestFit="1" width="35.875" style="0"/>
-    <col min="6" max="6" customWidth="1" width="51.375" style="0"/>
+    <col min="1" max="2" width="10" style="2"/>
+    <col min="3" max="3" width="56.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.375" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="10" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="8:8">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="8:8">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="8:8">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="3" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="8:8">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="3" t="s">
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="8:8">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="3" t="s">
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="8:8">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="3" t="s">
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="8:8">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="3" t="s">
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="8:8">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="3" t="s">
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="8:8">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="3" t="s">
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="8:8">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="3" t="s">
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="8:8">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="3" t="s">
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="5" t="s">
+      <c r="E11" s="11"/>
+      <c r="F11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="8:8" ht="57.0">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="3" t="s">
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="8:8" ht="71.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="3" t="s">
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="8:8" ht="57.0">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="3" t="s">
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="8:8">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="3" t="s">
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="8:8">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="3" t="s">
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="8:8">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="3" t="s">
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="8:8" ht="28.5">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="3" t="s">
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="8:8">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="3" t="s">
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="8:8">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="3" t="s">
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="8:8">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="3" t="s">
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="8:8">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="3" t="s">
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="8:8" ht="71.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="8" t="s">
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="8:8" ht="114.0">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="8" t="s">
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" ht="114" x14ac:dyDescent="0.2">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="8:8">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="8" t="s">
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="8:8">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="8" t="s">
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="8:8" ht="71.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="8" t="s">
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="8:8">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="8" t="s">
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="8:8">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="8" t="s">
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="8:8">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="8" t="s">
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="8:8">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="8" t="s">
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="8:8" ht="99.75">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="8" t="s">
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F32" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="8:8">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="8" t="s">
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F33" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="8:8">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="8:8">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="8:8">
-      <c r="A36" s="1"/>
-      <c r="B36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-    </row>
-    <row r="37" spans="8:8">
-      <c r="A37" s="1"/>
-      <c r="B37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-    </row>
-    <row r="38" spans="8:8">
-      <c r="A38" s="1"/>
-      <c r="B38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-    </row>
-    <row r="39" spans="8:8">
-      <c r="A39" s="1"/>
-      <c r="B39" s="9"/>
-    </row>
-    <row r="40" spans="8:8">
-      <c r="A40" s="1"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+    </row>
+    <row r="36" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="C3:F3">
-    <filterColumn colId="0" showButton="1"/>
-  </autoFilter>
+  <autoFilter ref="C3:F3" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="2">
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="C2:F2"/>
   </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F4" r:id="rId1"/>
-    <hyperlink ref="F22" r:id="rId2"/>
-    <hyperlink ref="F21" r:id="rId3"/>
-    <hyperlink ref="F20" r:id="rId4"/>
-    <hyperlink ref="F19" r:id="rId5"/>
-    <hyperlink ref="F18" r:id="rId6"/>
-    <hyperlink ref="F17" r:id="rId7"/>
-    <hyperlink ref="F16" r:id="rId8"/>
-    <hyperlink ref="F15" r:id="rId9"/>
-    <hyperlink ref="F14" r:id="rId10"/>
-    <hyperlink ref="F13" r:id="rId11"/>
-    <hyperlink ref="F12" r:id="rId12"/>
-    <hyperlink ref="F11" r:id="rId13"/>
-    <hyperlink ref="F10" r:id="rId14"/>
-    <hyperlink ref="F9" r:id="rId15"/>
-    <hyperlink ref="F8" r:id="rId16"/>
-    <hyperlink ref="F7" r:id="rId17"/>
-    <hyperlink ref="F6" r:id="rId18"/>
-    <hyperlink ref="F5" r:id="rId19"/>
-    <hyperlink ref="F23" r:id="rId20"/>
-    <hyperlink ref="F24" r:id="rId21"/>
-    <hyperlink ref="F25" r:id="rId22"/>
-    <hyperlink ref="F26" r:id="rId23"/>
-    <hyperlink ref="F27" r:id="rId24"/>
-    <hyperlink ref="F28" r:id="rId25"/>
-    <hyperlink ref="F29" r:id="rId26"/>
-    <hyperlink ref="F30" r:id="rId27"/>
-    <hyperlink ref="F31" r:id="rId28"/>
-    <hyperlink ref="F32" r:id="rId29"/>
-    <hyperlink ref="F33" r:id="rId30"/>
+    <hyperlink ref="F4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F22" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F21" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F20" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F19" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F18" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F17" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F16" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F15" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F14" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F13" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F12" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="F11" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="F10" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="F9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="F8" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="F7" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="F6" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="F5" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="F23" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="F24" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="F25" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="F26" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="F27" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="F28" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="F29" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="F30" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="F31" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="F32" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="F33" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="F34" r:id="rId31" display="https://steamcommunity.com/sharedfiles/filedetails/?id=2059298298" xr:uid="{F704D2F9-529B-47FC-907F-C6FD0257D097}"/>
+    <hyperlink ref="F35" r:id="rId32" display="https://steamcommunity.com/sharedfiles/filedetails/?id=1986485167" xr:uid="{017A26A8-7A96-45B1-A615-81C0E3EB5274}"/>
+    <hyperlink ref="F36" r:id="rId33" display="https://steamcommunity.com/sharedfiles/filedetails/?id=3151742112" xr:uid="{2BC0B23D-D46D-4F68-8D23-F6A5E331AF2F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="79">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView zoomScale="79" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.25" defaultColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" customWidth="1" width="19.09375" style="0"/>
+    <col min="1" max="1" width="10" style="2"/>
+    <col min="2" max="2" width="19.125" style="2" customWidth="1"/>
+    <col min="3" max="5" width="22.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10" style="2"/>
+    <col min="7" max="7" width="16.25" style="2" customWidth="1"/>
+    <col min="8" max="8" width="24" style="2" customWidth="1"/>
+    <col min="9" max="9" width="25" style="2" customWidth="1"/>
+    <col min="10" max="10" width="20.375" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="10" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="8:8" ht="19.95">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="11"/>
-    </row>
-    <row r="2" spans="8:8" ht="18.55">
-      <c r="A2" s="12" t="s">
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="8:8" ht="18.55">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="8:8" ht="18.55">
-      <c r="A4" s="12" t="s">
+      <c r="B3" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="8:8" ht="18.55">
-      <c r="A5" s="12" t="s">
+      <c r="B4" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="8:8" ht="37.1">
-      <c r="A6" s="12" t="s">
+      <c r="B5" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="8:8" ht="37.1">
-      <c r="A7" s="12" t="s">
+      <c r="B6" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="8:8" ht="37.1">
-      <c r="A8" s="12" t="s">
+      <c r="B7" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="8:8" ht="37.1">
-      <c r="A9" s="12" t="s">
+      <c r="B8" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>98</v>
+      <c r="B9" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="93.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="4">
+        <v>100</v>
+      </c>
+      <c r="E13" s="4">
+        <v>5.26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1</v>
+      </c>
+      <c r="C14" s="4">
+        <v>4</v>
+      </c>
+      <c r="D14" s="4">
+        <v>100</v>
+      </c>
+      <c r="E14" s="4">
+        <v>6.67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" s="4">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4">
+        <v>20</v>
+      </c>
+      <c r="D15" s="4">
+        <v>100</v>
+      </c>
+      <c r="E15" s="4">
+        <v>33.33</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>